--- a/Ponuda Dom - Berane.xlsx
+++ b/Ponuda Dom - Berane.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\nodejs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>NAZIV PROIZVODA/USLUGE</t>
   </si>
@@ -272,6 +272,9 @@
       </rPr>
       <t xml:space="preserve"> - Minijaturni beskontaktni čitač za spoljnju montažu, EM 125 kHz. Tamno sive boje. Kabl za vezu 50cm</t>
     </r>
+  </si>
+  <si>
+    <t>Switch</t>
   </si>
 </sst>
 </file>
@@ -384,7 +387,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="60">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -847,21 +850,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1098,26 +1086,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1242,7 +1215,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1262,8 +1235,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1271,13 +1256,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1286,30 +1271,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1327,27 +1312,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1360,7 +1342,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1371,27 +1353,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1773,7 +1734,7 @@
   <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1818,24 +1779,24 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D7" s="68" t="s">
+      <c r="D7" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
@@ -1849,19 +1810,19 @@
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="98" t="s">
+      <c r="A12" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="99"/>
-      <c r="C12" s="81" t="s">
+      <c r="B12" s="102"/>
+      <c r="C12" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="83"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="86"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
@@ -1869,31 +1830,31 @@
       <c r="C13" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="84" t="s">
+      <c r="D13" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="86"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="89"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="96" t="s">
+      <c r="A14" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="97"/>
+      <c r="B14" s="100"/>
       <c r="C14" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="87" t="s">
+      <c r="D14" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="89"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="92"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
@@ -1901,12 +1862,12 @@
       <c r="C15" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="90"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="92"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="95"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
@@ -1914,12 +1875,12 @@
       <c r="C16" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="93"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="95"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="98"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
@@ -1933,15 +1894,15 @@
       <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="65"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="67"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="70"/>
     </row>
     <row r="19" spans="1:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
@@ -1970,10 +1931,10 @@
       <c r="E20" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="104" t="s">
+      <c r="F20" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="105"/>
+      <c r="G20" s="67"/>
       <c r="H20" s="11" t="s">
         <v>6</v>
       </c>
@@ -2400,15 +2361,35 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="63"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="107"/>
-      <c r="E35" s="107"/>
-      <c r="F35" s="108"/>
-      <c r="G35" s="109"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="110"/>
+      <c r="A35" s="1">
+        <v>13</v>
+      </c>
+      <c r="B35" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="64">
+        <v>1</v>
+      </c>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65">
+        <f>C35*D35</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="65">
+        <v>0.21</v>
+      </c>
+      <c r="G35" s="65">
+        <f>E35*0.21</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="65">
+        <f t="shared" ref="H35" si="4">D35*0.21+D35</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="65">
+        <f>E35+G35</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
@@ -2444,12 +2425,12 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="101" t="s">
+      <c r="A38" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="101"/>
-      <c r="C38" s="101"/>
-      <c r="D38" s="101"/>
+      <c r="B38" s="104"/>
+      <c r="C38" s="104"/>
+      <c r="D38" s="104"/>
       <c r="E38" s="33" t="s">
         <v>19</v>
       </c>
@@ -2462,12 +2443,12 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="102" t="s">
+      <c r="A39" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="102"/>
-      <c r="C39" s="102"/>
-      <c r="D39" s="102"/>
+      <c r="B39" s="105"/>
+      <c r="C39" s="105"/>
+      <c r="D39" s="105"/>
       <c r="E39" s="34" t="s">
         <v>28</v>
       </c>
@@ -2480,49 +2461,49 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="103" t="s">
+      <c r="A40" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="103"/>
-      <c r="C40" s="103"/>
-      <c r="D40" s="103"/>
-      <c r="E40" s="100" t="s">
+      <c r="B40" s="106"/>
+      <c r="C40" s="106"/>
+      <c r="D40" s="106"/>
+      <c r="E40" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="100"/>
-      <c r="G40" s="100"/>
-      <c r="H40" s="100"/>
+      <c r="F40" s="103"/>
+      <c r="G40" s="103"/>
+      <c r="H40" s="103"/>
       <c r="I40" s="52">
         <f>I38+I39</f>
         <v>2807.2</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="75"/>
-      <c r="B41" s="76"/>
-      <c r="C41" s="77"/>
+      <c r="A41" s="78"/>
+      <c r="B41" s="79"/>
+      <c r="C41" s="80"/>
       <c r="D41" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="69" t="s">
+      <c r="E41" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="F41" s="70"/>
-      <c r="G41" s="70"/>
-      <c r="H41" s="70"/>
-      <c r="I41" s="71"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="73"/>
+      <c r="I41" s="74"/>
       <c r="J41" s="40"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="78"/>
-      <c r="B42" s="79"/>
-      <c r="C42" s="80"/>
+      <c r="A42" s="81"/>
+      <c r="B42" s="82"/>
+      <c r="C42" s="83"/>
       <c r="D42" s="14"/>
-      <c r="E42" s="72"/>
-      <c r="F42" s="73"/>
-      <c r="G42" s="73"/>
-      <c r="H42" s="73"/>
-      <c r="I42" s="74"/>
+      <c r="E42" s="75"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="77"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
@@ -2650,6 +2631,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A40:D40"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="A18:I18"/>
     <mergeCell ref="D6:I6"/>
@@ -2666,7 +2648,6 @@
     <mergeCell ref="E40:H40"/>
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D40"/>
   </mergeCells>
   <pageMargins left="0.18" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="300" r:id="rId1"/>

--- a/Ponuda Dom - Berane.xlsx
+++ b/Ponuda Dom - Berane.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>NAZIV PROIZVODA/USLUGE</t>
   </si>
@@ -51,9 +51,6 @@
     <t xml:space="preserve">      Iznos rabata:</t>
   </si>
   <si>
-    <t>Plaćanje: virmanski.</t>
-  </si>
-  <si>
     <t>0,00</t>
   </si>
   <si>
@@ -100,9 +97,6 @@
   </si>
   <si>
     <t>81 000  Podgorica / Crna Gora</t>
-  </si>
-  <si>
-    <t>Rok plaćanja: Do 5 dana od završetka instalacije I isporuke robe</t>
   </si>
   <si>
     <t>Rok isporuke: Do 10 dana od dana prihvatanja ponude</t>
@@ -230,9 +224,6 @@
     <t>Berane bb</t>
   </si>
   <si>
-    <t>Grancija: 12 mjeseci</t>
-  </si>
-  <si>
     <t>Ponuda je važeća bez pečata I potpisa. Ponuda vazi 10 dana</t>
   </si>
   <si>
@@ -240,9 +231,6 @@
   </si>
   <si>
     <t>Brava</t>
-  </si>
-  <si>
-    <t>DELL 21.5" E2218HN monitor</t>
   </si>
   <si>
     <t>Tastatura i miš</t>
@@ -274,7 +262,16 @@
     </r>
   </si>
   <si>
-    <t>Switch</t>
+    <t>Benq 21.5" GL2250LED monitor</t>
+  </si>
+  <si>
+    <t>Switch - D-Link</t>
+  </si>
+  <si>
+    <t>Plaćanje: 70% avans, 30% 5 dana od završetka instalacije</t>
+  </si>
+  <si>
+    <t>Grancija: shodno specifikaciji opreme</t>
   </si>
 </sst>
 </file>
@@ -1090,9 +1087,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1227,19 +1223,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1351,8 +1346,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1731,10 +1736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1749,871 +1754,868 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
+      <c r="D1" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D6" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D7" s="69" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D6" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D7" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="7"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="99" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="100"/>
+      <c r="C12" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="84"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="102"/>
-      <c r="C12" s="84" t="s">
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="87"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="97" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="98"/>
+      <c r="C14" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="86"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="87" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="89"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="99" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="100"/>
-      <c r="C14" s="46" t="s">
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="90"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="90" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="92"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="46" t="s">
+      <c r="D15" s="91"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="93"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="93"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="95"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="96"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="98"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="96"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="68"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="70"/>
+      <c r="A18" s="66"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="68"/>
     </row>
     <row r="19" spans="1:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="66" t="s">
+      <c r="F20" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="67"/>
-      <c r="H20" s="11" t="s">
+      <c r="G20" s="65"/>
+      <c r="H20" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="I20" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="26"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="25"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="43"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="42"/>
     </row>
     <row r="23" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="54">
+      <c r="A23" s="53">
         <v>1</v>
       </c>
-      <c r="B23" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="59">
+      <c r="B23" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="58">
         <v>4</v>
       </c>
-      <c r="D23" s="58">
+      <c r="D23" s="57">
         <v>95</v>
       </c>
-      <c r="E23" s="58">
+      <c r="E23" s="57">
         <f>C23*D23</f>
         <v>380</v>
       </c>
-      <c r="F23" s="49">
+      <c r="F23" s="48">
         <v>0.21</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="23">
         <f t="shared" ref="G23:G30" si="0">E23*0.21</f>
         <v>79.8</v>
       </c>
-      <c r="H23" s="61">
+      <c r="H23" s="59">
         <f>D23*0.21+D23</f>
         <v>114.95</v>
       </c>
-      <c r="I23" s="23">
+      <c r="I23" s="22">
         <f t="shared" ref="I23:I30" si="1">E23+G23</f>
         <v>459.8</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="153" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="54">
+      <c r="A24" s="53">
         <v>2</v>
       </c>
-      <c r="B24" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="59">
+      <c r="B24" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="58">
         <v>2</v>
       </c>
-      <c r="D24" s="58">
+      <c r="D24" s="57">
         <v>210</v>
       </c>
-      <c r="E24" s="58">
+      <c r="E24" s="57">
         <f>C24*D24</f>
         <v>420</v>
       </c>
-      <c r="F24" s="49">
+      <c r="F24" s="48">
         <v>0.21</v>
       </c>
-      <c r="G24" s="50">
+      <c r="G24" s="49">
         <f t="shared" si="0"/>
         <v>88.2</v>
       </c>
-      <c r="H24" s="61">
+      <c r="H24" s="59">
         <f t="shared" ref="H24:H34" si="2">D24*0.21+D24</f>
         <v>254.1</v>
       </c>
-      <c r="I24" s="44">
+      <c r="I24" s="43">
         <f t="shared" si="1"/>
         <v>508.2</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="54">
+      <c r="A25" s="53">
         <v>3</v>
       </c>
-      <c r="B25" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="59">
+      <c r="B25" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="58">
         <v>1</v>
       </c>
-      <c r="D25" s="58">
+      <c r="D25" s="57">
         <v>160</v>
       </c>
-      <c r="E25" s="58">
+      <c r="E25" s="57">
         <f t="shared" ref="E25:E30" si="3">C25*D25</f>
         <v>160</v>
       </c>
-      <c r="F25" s="49">
+      <c r="F25" s="48">
         <v>0.21</v>
       </c>
-      <c r="G25" s="50">
+      <c r="G25" s="49">
         <f t="shared" si="0"/>
         <v>33.6</v>
       </c>
-      <c r="H25" s="61">
+      <c r="H25" s="59">
         <f t="shared" si="2"/>
         <v>193.6</v>
       </c>
-      <c r="I25" s="44">
+      <c r="I25" s="43">
         <f t="shared" si="1"/>
         <v>193.6</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="54">
+      <c r="A26" s="53">
         <v>4</v>
       </c>
-      <c r="B26" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="59">
+      <c r="B26" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="58">
         <v>2</v>
       </c>
-      <c r="D26" s="58">
+      <c r="D26" s="57">
         <v>48</v>
       </c>
-      <c r="E26" s="58">
+      <c r="E26" s="57">
         <f t="shared" si="3"/>
         <v>96</v>
       </c>
-      <c r="F26" s="49">
+      <c r="F26" s="48">
         <v>0.21</v>
       </c>
-      <c r="G26" s="24">
+      <c r="G26" s="23">
         <f t="shared" si="0"/>
         <v>20.16</v>
       </c>
-      <c r="H26" s="61">
+      <c r="H26" s="59">
         <f t="shared" si="2"/>
         <v>58.08</v>
       </c>
-      <c r="I26" s="25">
+      <c r="I26" s="24">
         <f t="shared" si="1"/>
         <v>116.16</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="54">
+      <c r="A27" s="53">
         <v>5</v>
       </c>
-      <c r="B27" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="59">
+      <c r="B27" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="58">
         <v>50</v>
       </c>
-      <c r="D27" s="58">
+      <c r="D27" s="57">
         <v>1</v>
       </c>
-      <c r="E27" s="58">
+      <c r="E27" s="57">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="F27" s="49">
+      <c r="F27" s="48">
         <v>0.21</v>
       </c>
-      <c r="G27" s="24">
+      <c r="G27" s="23">
         <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
-      <c r="H27" s="61">
+      <c r="H27" s="59">
         <f t="shared" si="2"/>
         <v>1.21</v>
       </c>
-      <c r="I27" s="25">
+      <c r="I27" s="24">
         <f t="shared" si="1"/>
         <v>60.5</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="54">
+      <c r="A28" s="53">
         <v>6</v>
       </c>
-      <c r="B28" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="59">
+      <c r="B28" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="58">
         <v>1</v>
       </c>
-      <c r="D28" s="58">
+      <c r="D28" s="57">
         <v>350</v>
       </c>
-      <c r="E28" s="58">
+      <c r="E28" s="57">
         <f t="shared" si="3"/>
         <v>350</v>
       </c>
-      <c r="F28" s="49">
+      <c r="F28" s="48">
         <v>0.21</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G28" s="23">
         <f t="shared" si="0"/>
         <v>73.5</v>
       </c>
-      <c r="H28" s="61">
+      <c r="H28" s="59">
         <f t="shared" si="2"/>
         <v>423.5</v>
       </c>
-      <c r="I28" s="25">
+      <c r="I28" s="24">
         <f t="shared" si="1"/>
         <v>423.5</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="54">
+      <c r="A29" s="53">
         <v>7</v>
       </c>
-      <c r="B29" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="59">
+      <c r="B29" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="58">
         <v>1</v>
       </c>
-      <c r="D29" s="58">
+      <c r="D29" s="57">
         <v>50</v>
       </c>
-      <c r="E29" s="58">
+      <c r="E29" s="57">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="F29" s="49">
+      <c r="F29" s="48">
         <v>0.21</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="23">
         <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
-      <c r="H29" s="61">
+      <c r="H29" s="59">
         <f>D29*0.21+D29</f>
         <v>60.5</v>
       </c>
-      <c r="I29" s="25">
+      <c r="I29" s="24">
         <f t="shared" si="1"/>
         <v>60.5</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="54">
+      <c r="A30" s="53">
         <v>8</v>
       </c>
-      <c r="B30" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="59">
+      <c r="B30" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="58">
         <v>1</v>
       </c>
-      <c r="D30" s="58">
+      <c r="D30" s="57">
         <v>40</v>
       </c>
-      <c r="E30" s="58">
+      <c r="E30" s="57">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="F30" s="49">
+      <c r="F30" s="48">
         <v>0.21</v>
       </c>
-      <c r="G30" s="24">
+      <c r="G30" s="23">
         <f t="shared" si="0"/>
         <v>8.4</v>
       </c>
-      <c r="H30" s="61">
+      <c r="H30" s="59">
         <f t="shared" si="2"/>
         <v>48.4</v>
       </c>
-      <c r="I30" s="25">
+      <c r="I30" s="24">
         <f t="shared" si="1"/>
         <v>48.4</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="54">
+      <c r="A31" s="53">
         <v>9</v>
       </c>
-      <c r="B31" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="59">
+      <c r="B31" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="58">
         <v>2</v>
       </c>
-      <c r="D31" s="58">
+      <c r="D31" s="57">
         <v>40</v>
       </c>
-      <c r="E31" s="58">
+      <c r="E31" s="57">
         <f>C31*D31</f>
         <v>80</v>
       </c>
-      <c r="F31" s="49">
+      <c r="F31" s="48">
         <v>0.21</v>
       </c>
-      <c r="G31" s="24">
+      <c r="G31" s="23">
         <f>E31*0.21</f>
         <v>16.8</v>
       </c>
-      <c r="H31" s="61">
+      <c r="H31" s="59">
         <f t="shared" si="2"/>
         <v>48.4</v>
       </c>
-      <c r="I31" s="25">
+      <c r="I31" s="24">
         <f>E31+G31</f>
         <v>96.8</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="54">
+      <c r="A32" s="53">
         <v>10</v>
       </c>
-      <c r="B32" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="59">
+      <c r="B32" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="58">
         <v>1</v>
       </c>
-      <c r="D32" s="58">
+      <c r="D32" s="57">
         <v>565</v>
       </c>
-      <c r="E32" s="58">
+      <c r="E32" s="57">
         <f>C32*D32</f>
         <v>565</v>
       </c>
-      <c r="F32" s="49">
+      <c r="F32" s="48">
         <v>0.21</v>
       </c>
-      <c r="G32" s="24">
+      <c r="G32" s="23">
         <f>E32*0.21</f>
         <v>118.64999999999999</v>
       </c>
-      <c r="H32" s="61">
+      <c r="H32" s="59">
         <f t="shared" si="2"/>
         <v>683.65</v>
       </c>
-      <c r="I32" s="25">
+      <c r="I32" s="24">
         <f>E32+G32</f>
         <v>683.65</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="54">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="53">
         <v>11</v>
       </c>
-      <c r="B33" s="57" t="s">
+      <c r="B33" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="59">
+      <c r="C33" s="58">
         <v>1</v>
       </c>
-      <c r="D33" s="58">
-        <v>117</v>
-      </c>
-      <c r="E33" s="58">
+      <c r="D33" s="57">
+        <v>98</v>
+      </c>
+      <c r="E33" s="57">
         <f>C33*D33</f>
-        <v>117</v>
-      </c>
-      <c r="F33" s="49">
+        <v>98</v>
+      </c>
+      <c r="F33" s="48">
         <v>0.21</v>
       </c>
-      <c r="G33" s="24">
+      <c r="G33" s="23">
         <f>E33*0.21</f>
-        <v>24.57</v>
-      </c>
-      <c r="H33" s="61">
+        <v>20.58</v>
+      </c>
+      <c r="H33" s="59">
         <f t="shared" si="2"/>
-        <v>141.57</v>
-      </c>
-      <c r="I33" s="25">
+        <v>118.58</v>
+      </c>
+      <c r="I33" s="24">
         <f>E33+G33</f>
-        <v>141.57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="54">
+        <v>118.58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="53">
         <v>12</v>
       </c>
-      <c r="B34" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="59">
+      <c r="B34" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="58">
         <v>1</v>
       </c>
-      <c r="D34" s="58">
+      <c r="D34" s="57">
         <v>12</v>
       </c>
-      <c r="E34" s="58">
+      <c r="E34" s="57">
         <f>C34*D34</f>
         <v>12</v>
       </c>
-      <c r="F34" s="49">
+      <c r="F34" s="48">
         <v>0.21</v>
       </c>
-      <c r="G34" s="24">
+      <c r="G34" s="23">
         <f>E34*0.21</f>
         <v>2.52</v>
       </c>
-      <c r="H34" s="61">
+      <c r="H34" s="59">
         <f t="shared" si="2"/>
         <v>14.52</v>
       </c>
-      <c r="I34" s="25">
+      <c r="I34" s="24">
         <f>E34+G34</f>
         <v>14.52</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+    <row r="35" spans="1:11" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="105">
         <v>13</v>
       </c>
-      <c r="B35" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="64">
+      <c r="B35" s="108" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="61">
         <v>1</v>
       </c>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65">
+      <c r="D35" s="62">
+        <v>15</v>
+      </c>
+      <c r="E35" s="62">
         <f>C35*D35</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="65">
+        <v>15</v>
+      </c>
+      <c r="F35" s="106">
         <v>0.21</v>
       </c>
-      <c r="G35" s="65">
+      <c r="G35" s="106">
         <f>E35*0.21</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="65">
+        <v>3.15</v>
+      </c>
+      <c r="H35" s="106">
         <f t="shared" ref="H35" si="4">D35*0.21+D35</f>
-        <v>0</v>
-      </c>
-      <c r="I35" s="65">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="I35" s="106">
         <f>E35+G35</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
+        <v>18.149999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="35">
+        <f>SUM(E21:E35)</f>
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="102" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="102"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="102"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="36">
-        <f>SUM(E21:E34)</f>
-        <v>2320</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="60" t="s">
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E38" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="17"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="35">
+        <f>I36</f>
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="103" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="103"/>
+      <c r="C39" s="103"/>
+      <c r="D39" s="103"/>
+      <c r="E39" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="60"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="104" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" s="104"/>
-      <c r="C38" s="104"/>
-      <c r="D38" s="104"/>
-      <c r="E38" s="33" t="s">
+      <c r="F39" s="15"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="34">
+        <f>I38*0.21</f>
+        <v>486.35999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="63"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="101"/>
+      <c r="G40" s="101"/>
+      <c r="H40" s="101"/>
+      <c r="I40" s="51">
+        <f>I38+I39</f>
+        <v>2802.36</v>
+      </c>
+      <c r="K40" s="104"/>
+    </row>
+    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="76"/>
+      <c r="B41" s="77"/>
+      <c r="C41" s="78"/>
+      <c r="D41" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="F38" s="18"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="36">
-        <f>I36</f>
-        <v>2320</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="105" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="105"/>
-      <c r="C39" s="105"/>
-      <c r="D39" s="105"/>
-      <c r="E39" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="35">
-        <f>I38*0.21</f>
-        <v>487.2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="106" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="106"/>
-      <c r="C40" s="106"/>
-      <c r="D40" s="106"/>
-      <c r="E40" s="103" t="s">
-        <v>21</v>
-      </c>
-      <c r="F40" s="103"/>
-      <c r="G40" s="103"/>
-      <c r="H40" s="103"/>
-      <c r="I40" s="52">
-        <f>I38+I39</f>
-        <v>2807.2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="78"/>
-      <c r="B41" s="79"/>
-      <c r="C41" s="80"/>
-      <c r="D41" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="F41" s="73"/>
-      <c r="G41" s="73"/>
-      <c r="H41" s="73"/>
-      <c r="I41" s="74"/>
-      <c r="J41" s="40"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="81"/>
-      <c r="B42" s="82"/>
-      <c r="C42" s="83"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="75"/>
-      <c r="F42" s="76"/>
-      <c r="G42" s="76"/>
-      <c r="H42" s="76"/>
-      <c r="I42" s="77"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
+      <c r="E41" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="71"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="71"/>
+      <c r="I41" s="72"/>
+      <c r="J41" s="39"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="79"/>
+      <c r="B42" s="80"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="74"/>
+      <c r="G42" s="74"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="75"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
     </row>
     <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2621,21 +2623,16 @@
     <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
     <mergeCell ref="E41:I42"/>
     <mergeCell ref="A41:C42"/>
     <mergeCell ref="C12:I12"/>
@@ -2646,8 +2643,13 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="E40:H40"/>
-    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A37:D37"/>
     <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
   </mergeCells>
   <pageMargins left="0.18" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="300" r:id="rId1"/>

--- a/Ponuda Dom - Berane.xlsx
+++ b/Ponuda Dom - Berane.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$45</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>NAZIV PROIZVODA/USLUGE</t>
   </si>
@@ -227,12 +227,6 @@
     <t>Ponuda je važeća bez pečata I potpisa. Ponuda vazi 10 dana</t>
   </si>
   <si>
-    <t>Kablovi, kanalice, i sitni potrosni materijal</t>
-  </si>
-  <si>
-    <t>Brava</t>
-  </si>
-  <si>
     <t>Tastatura i miš</t>
   </si>
   <si>
@@ -265,13 +259,16 @@
     <t>Benq 21.5" GL2250LED monitor</t>
   </si>
   <si>
-    <t>Switch - D-Link</t>
-  </si>
-  <si>
     <t>Plaćanje: 70% avans, 30% 5 dana od završetka instalacije</t>
   </si>
   <si>
     <t>Grancija: shodno specifikaciji opreme</t>
+  </si>
+  <si>
+    <t>Elektromagnetna brava 300кg, dvostrana LED indikacikja (otključani/zaključano), ima magnet za status, dimenzija 254x45x28 mm. 12/24VDC</t>
+  </si>
+  <si>
+    <t>Kablovi, kanalice, stege i sitni potrosni materijal</t>
   </si>
 </sst>
 </file>
@@ -1226,33 +1223,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1346,18 +1334,29 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1736,10 +1735,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K58"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35:E35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1784,24 +1786,24 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D6" s="69" t="s">
+      <c r="D6" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D7" s="69" t="s">
+      <c r="D7" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -1815,19 +1817,19 @@
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="99" t="s">
+      <c r="A12" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="100"/>
-      <c r="C12" s="82" t="s">
+      <c r="B12" s="97"/>
+      <c r="C12" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="84"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="81"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
@@ -1835,31 +1837,31 @@
       <c r="C13" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="85" t="s">
+      <c r="D13" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="87"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="84"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="97" t="s">
+      <c r="A14" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="98"/>
+      <c r="B14" s="95"/>
       <c r="C14" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="88" t="s">
+      <c r="D14" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="90"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="87"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -1867,12 +1869,12 @@
       <c r="C15" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="91"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="93"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="90"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
@@ -1880,12 +1882,12 @@
       <c r="C16" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="94"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="96"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="93"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
@@ -1899,15 +1901,15 @@
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="66"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="68"/>
+      <c r="A18" s="104"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="106"/>
     </row>
     <row r="19" spans="1:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
@@ -1936,10 +1938,10 @@
       <c r="E20" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="64" t="s">
+      <c r="F20" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="65"/>
+      <c r="G20" s="103"/>
       <c r="H20" s="10" t="s">
         <v>6</v>
       </c>
@@ -1974,24 +1976,24 @@
         <v>1</v>
       </c>
       <c r="B23" s="56" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C23" s="58">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" s="57">
         <v>95</v>
       </c>
       <c r="E23" s="57">
         <f>C23*D23</f>
-        <v>380</v>
+        <v>190</v>
       </c>
       <c r="F23" s="48">
         <v>0.21</v>
       </c>
       <c r="G23" s="23">
         <f t="shared" ref="G23:G30" si="0">E23*0.21</f>
-        <v>79.8</v>
+        <v>39.9</v>
       </c>
       <c r="H23" s="59">
         <f>D23*0.21+D23</f>
@@ -1999,7 +2001,7 @@
       </c>
       <c r="I23" s="22">
         <f t="shared" ref="I23:I30" si="1">E23+G23</f>
-        <v>459.8</v>
+        <v>229.9</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="153" customHeight="1" x14ac:dyDescent="0.25">
@@ -2010,21 +2012,21 @@
         <v>30</v>
       </c>
       <c r="C24" s="58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" s="57">
         <v>210</v>
       </c>
       <c r="E24" s="57">
         <f>C24*D24</f>
-        <v>420</v>
+        <v>210</v>
       </c>
       <c r="F24" s="48">
         <v>0.21</v>
       </c>
       <c r="G24" s="49">
         <f t="shared" si="0"/>
-        <v>88.2</v>
+        <v>44.1</v>
       </c>
       <c r="H24" s="59">
         <f t="shared" ref="H24:H34" si="2">D24*0.21+D24</f>
@@ -2032,40 +2034,40 @@
       </c>
       <c r="I24" s="43">
         <f t="shared" si="1"/>
-        <v>508.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>254.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="53">
         <v>3</v>
       </c>
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="108" t="s">
         <v>31</v>
       </c>
       <c r="C25" s="58">
         <v>1</v>
       </c>
       <c r="D25" s="57">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E25" s="57">
         <f t="shared" ref="E25:E30" si="3">C25*D25</f>
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F25" s="48">
         <v>0.21</v>
       </c>
       <c r="G25" s="49">
         <f t="shared" si="0"/>
-        <v>33.6</v>
+        <v>34.65</v>
       </c>
       <c r="H25" s="59">
         <f t="shared" si="2"/>
-        <v>193.6</v>
+        <v>199.65</v>
       </c>
       <c r="I25" s="43">
         <f t="shared" si="1"/>
-        <v>193.6</v>
+        <v>199.65</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2076,21 +2078,21 @@
         <v>32</v>
       </c>
       <c r="C26" s="58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" s="57">
         <v>48</v>
       </c>
       <c r="E26" s="57">
         <f t="shared" si="3"/>
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="F26" s="48">
         <v>0.21</v>
       </c>
       <c r="G26" s="23">
         <f t="shared" si="0"/>
-        <v>20.16</v>
+        <v>10.08</v>
       </c>
       <c r="H26" s="59">
         <f t="shared" si="2"/>
@@ -2098,7 +2100,7 @@
       </c>
       <c r="I26" s="24">
         <f t="shared" si="1"/>
-        <v>116.16</v>
+        <v>58.08</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -2112,26 +2114,26 @@
         <v>50</v>
       </c>
       <c r="D27" s="57">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="E27" s="57">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F27" s="48">
         <v>0.21</v>
       </c>
       <c r="G27" s="23">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>12.6</v>
       </c>
       <c r="H27" s="59">
         <f t="shared" si="2"/>
-        <v>1.21</v>
+        <v>1.452</v>
       </c>
       <c r="I27" s="24">
         <f t="shared" si="1"/>
-        <v>60.5</v>
+        <v>72.599999999999994</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2205,7 +2207,7 @@
         <v>8</v>
       </c>
       <c r="B30" s="56" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C30" s="58">
         <v>1</v>
@@ -2233,37 +2235,37 @@
         <v>48.4</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="53">
         <v>9</v>
       </c>
       <c r="B31" s="56" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C31" s="58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" s="57">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E31" s="57">
         <f>C31*D31</f>
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="F31" s="48">
         <v>0.21</v>
       </c>
       <c r="G31" s="23">
         <f>E31*0.21</f>
-        <v>16.8</v>
+        <v>24.15</v>
       </c>
       <c r="H31" s="59">
         <f t="shared" si="2"/>
-        <v>48.4</v>
+        <v>139.15</v>
       </c>
       <c r="I31" s="24">
         <f>E31+G31</f>
-        <v>96.8</v>
+        <v>139.15</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2271,40 +2273,40 @@
         <v>10</v>
       </c>
       <c r="B32" s="56" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C32" s="58">
         <v>1</v>
       </c>
       <c r="D32" s="57">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="E32" s="57">
         <f>C32*D32</f>
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="F32" s="48">
         <v>0.21</v>
       </c>
       <c r="G32" s="23">
         <f>E32*0.21</f>
-        <v>118.64999999999999</v>
+        <v>120.75</v>
       </c>
       <c r="H32" s="59">
         <f t="shared" si="2"/>
-        <v>683.65</v>
+        <v>695.75</v>
       </c>
       <c r="I32" s="24">
         <f>E32+G32</f>
-        <v>683.65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>695.75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="53">
         <v>11</v>
       </c>
       <c r="B33" s="56" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C33" s="58">
         <v>1</v>
@@ -2332,12 +2334,12 @@
         <v>118.58</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="53">
         <v>12</v>
       </c>
       <c r="B34" s="56" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C34" s="58">
         <v>1</v>
@@ -2365,42 +2367,21 @@
         <v>14.52</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="105">
-        <v>13</v>
-      </c>
-      <c r="B35" s="108" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="61">
-        <v>1</v>
-      </c>
-      <c r="D35" s="62">
-        <v>15</v>
-      </c>
-      <c r="E35" s="62">
-        <f>C35*D35</f>
-        <v>15</v>
-      </c>
-      <c r="F35" s="106">
-        <v>0.21</v>
-      </c>
-      <c r="G35" s="106">
-        <f>E35*0.21</f>
-        <v>3.15</v>
-      </c>
-      <c r="H35" s="106">
-        <f t="shared" ref="H35" si="4">D35*0.21+D35</f>
-        <v>18.149999999999999</v>
-      </c>
-      <c r="I35" s="106">
-        <f>E35+G35</f>
-        <v>18.149999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" s="65" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="63"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
+      <c r="L35"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -2411,16 +2392,16 @@
       <c r="H36" s="15"/>
       <c r="I36" s="35">
         <f>SUM(E21:E35)</f>
-        <v>2316</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="102" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="102"/>
-      <c r="C37" s="102"/>
-      <c r="D37" s="102"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="99"/>
       <c r="E37" s="13"/>
       <c r="F37" s="15" t="s">
         <v>8</v>
@@ -2431,7 +2412,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E38" s="32" t="s">
         <v>18</v>
       </c>
@@ -2440,16 +2421,16 @@
       <c r="H38" s="15"/>
       <c r="I38" s="35">
         <f>I36</f>
-        <v>2316</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="103" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" s="103"/>
-      <c r="C39" s="103"/>
-      <c r="D39" s="103"/>
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="100" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="100"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="100"/>
       <c r="E39" s="33" t="s">
         <v>26</v>
       </c>
@@ -2458,56 +2439,56 @@
       <c r="H39" s="19"/>
       <c r="I39" s="34">
         <f>I38*0.21</f>
-        <v>486.35999999999996</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="63" t="s">
+        <v>401.72999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="63"/>
-      <c r="C40" s="63"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="101" t="s">
+      <c r="B40" s="101"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="101"/>
+      <c r="E40" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="F40" s="101"/>
-      <c r="G40" s="101"/>
-      <c r="H40" s="101"/>
+      <c r="F40" s="98"/>
+      <c r="G40" s="98"/>
+      <c r="H40" s="98"/>
       <c r="I40" s="51">
         <f>I38+I39</f>
-        <v>2802.36</v>
-      </c>
-      <c r="K40" s="104"/>
-    </row>
-    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="76"/>
-      <c r="B41" s="77"/>
-      <c r="C41" s="78"/>
+        <v>2314.73</v>
+      </c>
+      <c r="K40" s="62"/>
+    </row>
+    <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="73"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="75"/>
       <c r="D41" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="70" t="s">
+      <c r="E41" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="F41" s="71"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="71"/>
-      <c r="I41" s="72"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="69"/>
       <c r="J41" s="39"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="79"/>
-      <c r="B42" s="80"/>
-      <c r="C42" s="81"/>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="76"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="78"/>
       <c r="D42" s="13"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="74"/>
-      <c r="G42" s="74"/>
-      <c r="H42" s="74"/>
-      <c r="I42" s="75"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E42" s="70"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="71"/>
+      <c r="I42" s="72"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -2518,7 +2499,7 @@
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
@@ -2529,7 +2510,7 @@
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
@@ -2540,7 +2521,7 @@
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
@@ -2551,7 +2532,7 @@
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
@@ -2562,7 +2543,7 @@
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
@@ -2633,6 +2614,8 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
     <mergeCell ref="E41:I42"/>
     <mergeCell ref="A41:C42"/>
     <mergeCell ref="C12:I12"/>
@@ -2648,11 +2631,9 @@
     <mergeCell ref="A40:D40"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="A18:I18"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
   </mergeCells>
   <pageMargins left="0.18" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="73" orientation="portrait" horizontalDpi="4294967292" verticalDpi="300" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="43" max="10" man="1"/>
   </rowBreaks>
